--- a/models/mini_fixedwing_07/team07.xlsx
+++ b/models/mini_fixedwing_07/team07.xlsx
@@ -498,7 +498,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -615,6 +615,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Arial"/>
@@ -627,7 +632,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +661,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4285F4"/>
         <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -693,7 +704,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,6 +801,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -859,7 +874,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4285F4"/>
       <rgbColor rgb="FF46BDC6"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFEA4335"/>
@@ -1282,11 +1297,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72351756"/>
-        <c:axId val="91822044"/>
+        <c:axId val="71067491"/>
+        <c:axId val="99079783"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72351756"/>
+        <c:axId val="71067491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,12 +1380,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91822044"/>
+        <c:crossAx val="99079783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91822044"/>
+        <c:axId val="99079783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1428,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72351756"/>
+        <c:crossAx val="71067491"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1477,9 +1492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,8 +1507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10771560" y="6570000"/>
-          <a:ext cx="4874040" cy="2347200"/>
+          <a:off x="10771200" y="6570000"/>
+          <a:ext cx="4873320" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,9 +1529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,8 +1544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10496880" y="3607920"/>
-          <a:ext cx="6229080" cy="2676240"/>
+          <a:off x="10496520" y="3607920"/>
+          <a:ext cx="6228720" cy="2675880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1551,9 +1566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>903600</xdr:colOff>
+      <xdr:colOff>903240</xdr:colOff>
       <xdr:row>249</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1561,8 +1576,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4737240" y="37786680"/>
-        <a:ext cx="4398840" cy="3533040"/>
+        <a:off x="4736880" y="37786680"/>
+        <a:ext cx="4398480" cy="3532680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1594,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F203" activeCellId="0" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6409,7 +6424,7 @@
       <c r="A150" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="11" t="n">
+      <c r="B150" s="24" t="n">
         <v>0.006108652</v>
       </c>
       <c r="C150" s="6"/>
@@ -6442,7 +6457,7 @@
       <c r="A151" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B151" s="11" t="n">
+      <c r="B151" s="24" t="n">
         <v>5.6</v>
       </c>
       <c r="C151" s="6"/>
@@ -6504,7 +6519,7 @@
       <c r="A153" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B153" s="11" t="n">
+      <c r="B153" s="24" t="n">
         <v>-1.8</v>
       </c>
       <c r="C153" s="6"/>
@@ -6535,7 +6550,7 @@
       <c r="A154" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B154" s="11" t="n">
+      <c r="B154" s="24" t="n">
         <v>0.34</v>
       </c>
       <c r="D154" s="6"/>
@@ -6564,7 +6579,7 @@
       <c r="A155" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B155" s="11" t="n">
+      <c r="B155" s="24" t="n">
         <v>-3.85</v>
       </c>
       <c r="C155" s="6"/>
@@ -6624,7 +6639,7 @@
       <c r="A157" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="11" t="n">
+      <c r="B157" s="24" t="n">
         <v>0</v>
       </c>
       <c r="C157" s="6"/>
@@ -6688,7 +6703,7 @@
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B159" s="11" t="n">
+      <c r="B159" s="24" t="n">
         <v>0.0774192</v>
       </c>
       <c r="C159" s="6"/>
@@ -6786,7 +6801,7 @@
       <c r="A162" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B162" s="11" t="n">
+      <c r="B162" s="24" t="n">
         <v>-2</v>
       </c>
       <c r="C162" s="6"/>
@@ -7421,7 +7436,7 @@
       <c r="A183" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="24" t="n">
+      <c r="B183" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C183" s="11" t="n">
@@ -7673,10 +7688,10 @@
       <c r="Z190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B191" s="24" t="n">
+      <c r="B191" s="25" t="n">
         <v>4.265</v>
       </c>
       <c r="I191" s="15" t="s">
@@ -7701,16 +7716,16 @@
       <c r="Z191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B192" s="24" t="n">
+      <c r="B192" s="25" t="n">
         <v>-1.4659</v>
       </c>
-      <c r="C192" s="24" t="n">
+      <c r="C192" s="25" t="n">
         <v>1.884</v>
       </c>
-      <c r="D192" s="24" t="n">
+      <c r="D192" s="25" t="n">
         <v>-0.9442</v>
       </c>
       <c r="E192" s="11" t="n">
@@ -7741,16 +7756,16 @@
       <c r="Z192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B193" s="24" t="n">
+      <c r="B193" s="25" t="n">
         <v>-0.7629</v>
       </c>
-      <c r="C193" s="24" t="n">
+      <c r="C193" s="25" t="n">
         <v>1.0656</v>
       </c>
-      <c r="D193" s="24" t="n">
+      <c r="D193" s="25" t="n">
         <v>-0.5615</v>
       </c>
       <c r="E193" s="11" t="n">
@@ -8105,7 +8120,7 @@
       <c r="A203" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B203" s="24" t="s">
+      <c r="B203" s="25" t="s">
         <v>120</v>
       </c>
       <c r="C203" s="2"/>
@@ -8186,7 +8201,7 @@
       <c r="A206" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B206" s="24"/>
+      <c r="B206" s="25"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
@@ -8206,10 +8221,10 @@
       <c r="Z206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B207" s="24"/>
+      <c r="B207" s="25"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
@@ -8229,12 +8244,12 @@
       <c r="Z207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B208" s="24"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
       <c r="I208" s="15"/>
@@ -8257,12 +8272,12 @@
       <c r="Z208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B209" s="24"/>
-      <c r="C209" s="24"/>
-      <c r="D209" s="24"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
       <c r="I209" s="15"/>
@@ -8726,7 +8741,7 @@
       <c r="Z223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B224" s="11" t="n">
@@ -8750,10 +8765,10 @@
       <c r="Z224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B225" s="24" t="n">
+      <c r="B225" s="25" t="n">
         <v>11.1</v>
       </c>
       <c r="I225" s="15" t="s">
@@ -8774,10 +8789,10 @@
       <c r="Z225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B226" s="24" t="n">
+      <c r="B226" s="25" t="n">
         <v>0.4</v>
       </c>
       <c r="I226" s="15" t="s">
@@ -8798,10 +8813,10 @@
       <c r="Z226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B227" s="24" t="n">
+      <c r="B227" s="25" t="n">
         <v>0.19</v>
       </c>
       <c r="I227" s="15" t="s">
@@ -8837,7 +8852,7 @@
       <c r="Z228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="26" t="s">
+      <c r="A229" s="27" t="s">
         <v>134</v>
       </c>
       <c r="N229" s="6"/>
@@ -8855,16 +8870,16 @@
       <c r="Z229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="27" t="s">
+      <c r="A230" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B230" s="27" t="s">
+      <c r="B230" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C230" s="27" t="s">
+      <c r="C230" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D230" s="27" t="s">
+      <c r="D230" s="28" t="s">
         <v>138</v>
       </c>
       <c r="N230" s="6"/>
